--- a/ProjectData/config.xlsx
+++ b/ProjectData/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74fc267466bd8fde/Projects/UIPath/GitHub/Test Driven Development Template/ProjectData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048B441986CFC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95F5D56-812C-4404-8470-528C6F8EB935}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC1048B441986CFC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766B799F-9F89-4C20-8CAC-AD9082A7E8D4}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="17957" windowHeight="9892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="549" yWindow="2126" windowWidth="17957" windowHeight="9891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Key</t>
   </si>
@@ -36,7 +36,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>Hello World</t>
+    <t>read config successful</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>leave here for testing</t>
   </si>
 </sst>
 </file>
@@ -109,10 +115,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,32 +380,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.53515625" customWidth="1"/>
     <col min="2" max="2" width="36.4609375" customWidth="1"/>
+    <col min="3" max="3" width="65.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
